--- a/plan/LearnPlan.xlsx
+++ b/plan/LearnPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E93031-7C3A-41A9-B1CE-3ABBB8F3F362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA9239-943D-48FF-B961-21D83B1DE484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="OutLine" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,22 @@
   </si>
   <si>
     <t>主要垃圾收集器及其算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习一个算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步一个小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10句英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书一个小时（Kafka）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +509,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -526,7 +542,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3">
-        <v>44300</v>
+        <v>44306</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -558,7 +574,9 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -566,7 +584,9 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -574,7 +594,9 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -582,7 +604,9 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -630,6 +654,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -638,7 +663,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/plan/LearnPlan.xlsx
+++ b/plan/LearnPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA9239-943D-48FF-B961-21D83B1DE484}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4FD86F-A397-49A6-A363-583181E92D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>读书一个小时（Kafka）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心浮气躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心浮气躁,需静心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需静心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,20 +530,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,123 +558,413 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
       <c r="B2" s="3">
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44312</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44312</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44312</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44312</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44312</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44312</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44313</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44314</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44314</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44314</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44314</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44314</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44314</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44314</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -663,7 +978,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/plan/LearnPlan.xlsx
+++ b/plan/LearnPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4FD86F-A397-49A6-A363-583181E92D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC3873B-044E-4870-A1DB-5BD9078D0241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读书一个小时（Kafka）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,19 +152,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心浮气躁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心浮气躁,需静心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需静心</t>
+    <t>设计模式之构建者模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +517,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -558,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -572,18 +556,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -591,18 +573,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -610,18 +590,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,18 +607,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -648,18 +624,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -667,18 +641,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -686,284 +658,142 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44313</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44314</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44314</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44314</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44314</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44314</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3">
-        <v>44314</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3">
-        <v>44314</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
   </sheetData>

--- a/plan/LearnPlan.xlsx
+++ b/plan/LearnPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC3873B-044E-4870-A1DB-5BD9078D0241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC91EF-C3CC-45AA-973B-882F9CCBBC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,18 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JDK源码阅读ConcurrentHashMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring源码阅读监听器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要垃圾收集器及其算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>练习一个算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +141,50 @@
   </si>
   <si>
     <t>设计模式之构建者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区块链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFS文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要实体服务器，直接与磁盘交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux命令半小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统建设总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -234,6 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -514,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -542,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -555,14 +588,12 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>44349</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -572,14 +603,12 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>44349</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -589,14 +618,12 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>44349</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -606,14 +633,12 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>44349</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -623,14 +648,12 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>44349</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -640,32 +663,22 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>44349</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44349</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -786,15 +799,6 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -805,15 +809,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC825F1D-14F6-4AB0-812A-582ACB5E9B21}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -969,31 +975,106 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>